--- a/notebooks/lm_final_vars.xlsx
+++ b/notebooks/lm_final_vars.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,151 +467,151 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.098575009667786</v>
+        <v>-2.640459193799107</v>
       </c>
       <c r="C2" t="n">
-        <v>8.154541486556072</v>
+        <v>0.07132850842633892</v>
       </c>
       <c r="D2" t="n">
-        <v>7.908099522816616e-28</v>
+        <v>4.566671537639754e-10</v>
       </c>
       <c r="E2" t="n">
-        <v>5.597972920548134</v>
+        <v>0.0310949939009478</v>
       </c>
       <c r="F2" t="n">
-        <v>11.87868319474704</v>
+        <v>0.1636197817093389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Vital_Mental status_max</t>
+          <t>Lab_Bicarbonate_min</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.248641052576107</v>
+        <v>1.20856819713947</v>
       </c>
       <c r="C3" t="n">
-        <v>3.485602986306549</v>
+        <v>3.348686559412198</v>
       </c>
       <c r="D3" t="n">
-        <v>3.103388048906772e-37</v>
+        <v>4.630197303911932e-31</v>
       </c>
       <c r="E3" t="n">
-        <v>2.876867211564557</v>
+        <v>2.729694718790546</v>
       </c>
       <c r="F3" t="n">
-        <v>4.223145277373361</v>
+        <v>4.108042410748553</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Lab_Bicarbonate_min</t>
+          <t>age</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.168243098269119</v>
+        <v>0.7038347203741738</v>
       </c>
       <c r="C4" t="n">
-        <v>3.216336883842385</v>
+        <v>2.021489711148077</v>
       </c>
       <c r="D4" t="n">
-        <v>1.732001764937469e-19</v>
+        <v>8.644380365604712e-17</v>
       </c>
       <c r="E4" t="n">
-        <v>2.495897468755214</v>
+        <v>1.712701063062244</v>
       </c>
       <c r="F4" t="n">
-        <v>4.144730735082736</v>
+        <v>2.385950905507803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>Vital_GCS - Motor Response_mean</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6940095758160264</v>
+        <v>-0.5303595712030459</v>
       </c>
       <c r="C5" t="n">
-        <v>2.001725534451581</v>
+        <v>0.5883933623275239</v>
       </c>
       <c r="D5" t="n">
-        <v>1.484958429202451e-11</v>
+        <v>1.279185999786072e-09</v>
       </c>
       <c r="E5" t="n">
-        <v>1.636360284262944</v>
+        <v>0.4957866610813592</v>
       </c>
       <c r="F5" t="n">
-        <v>2.448669253226392</v>
+        <v>0.6982978284973985</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Lab_RDW_max</t>
+          <t>mechanical_ventilation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.473010376429457</v>
+        <v>0.488487833163917</v>
       </c>
       <c r="C6" t="n">
-        <v>1.604818035170997</v>
+        <v>1.629849750827966</v>
       </c>
       <c r="D6" t="n">
-        <v>5.748596974929349e-10</v>
+        <v>2.390690463919076e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>1.381835408961019</v>
+        <v>1.299362042504271</v>
       </c>
       <c r="F6" t="n">
-        <v>1.863782697496899</v>
+        <v>2.044395729118162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Lab_Sodium_Unified_mean</t>
+          <t>Vital_GCS - Eye Opening_mean</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4501303834673535</v>
+        <v>-0.4417510747235556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6375450208720381</v>
+        <v>0.6429096520014768</v>
       </c>
       <c r="D7" t="n">
-        <v>8.704977280820291e-12</v>
+        <v>1.578359770532759e-08</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5602517636488371</v>
+        <v>0.5516086703269868</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7255017833259279</v>
+        <v>0.7493225594000206</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Vital_GCS Total_min</t>
+          <t>Lab_RDW_max</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4088332713432934</v>
+        <v>0.4103796043392728</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6644250017757675</v>
+        <v>1.507389888262125</v>
       </c>
       <c r="D8" t="n">
-        <v>3.305903943222711e-163</v>
+        <v>3.026346320350402e-11</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6451541763838041</v>
+        <v>1.335548390549712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.684271448817379</v>
+        <v>1.701341779386708</v>
       </c>
     </row>
     <row r="9">
@@ -621,415 +621,613 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3894166419248272</v>
+        <v>0.404505634619577</v>
       </c>
       <c r="C9" t="n">
-        <v>1.476119436473983</v>
+        <v>1.498561479988383</v>
       </c>
       <c r="D9" t="n">
-        <v>0.008181342193182813</v>
+        <v>0.000882097549628282</v>
       </c>
       <c r="E9" t="n">
-        <v>1.106056273738197</v>
+        <v>1.180705146853721</v>
       </c>
       <c r="F9" t="n">
-        <v>1.969997948994068</v>
+        <v>1.901987566742769</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Vital_Respiratory Rate (Total) Unified_mean</t>
+          <t>Lab_Hematocrit_max</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3196354629396928</v>
+        <v>-0.3949088529679927</v>
       </c>
       <c r="C10" t="n">
-        <v>1.376625841719334</v>
+        <v>0.673741445983446</v>
       </c>
       <c r="D10" t="n">
-        <v>1.720053448533627e-13</v>
+        <v>1.057019797286305e-06</v>
       </c>
       <c r="E10" t="n">
-        <v>1.264427995900608</v>
+        <v>0.5749376720993045</v>
       </c>
       <c r="F10" t="n">
-        <v>1.49877945935518</v>
+        <v>0.7895247747089033</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Lab_Anion Gap_mean</t>
+          <t>rrt_dialysis</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3081204991963455</v>
+        <v>0.3884594805358751</v>
       </c>
       <c r="C11" t="n">
-        <v>1.360864962191908</v>
+        <v>1.474707227907482</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0008318319590976321</v>
+        <v>0.01004373074904986</v>
       </c>
       <c r="E11" t="n">
-        <v>1.135891371714212</v>
+        <v>1.0971380779286</v>
       </c>
       <c r="F11" t="n">
-        <v>1.630396613125723</v>
+        <v>1.982213043000502</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>length_of_stay_days</t>
+          <t>Lab_Sodium_Unified_mean</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2832150647767625</v>
+        <v>-0.3509725363800376</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7533577497197278</v>
+        <v>0.704003088063389</v>
       </c>
       <c r="D12" t="n">
-        <v>2.882067485998467e-07</v>
+        <v>3.011680888561784e-11</v>
       </c>
       <c r="E12" t="n">
-        <v>0.676110394305356</v>
+        <v>0.6347795836252261</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8394308146170089</v>
+        <v>0.7807755019030387</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Lab_Base Excess_min</t>
+          <t>Vital_Respiratory Rate (Total) Unified_mean</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.2484238258568617</v>
+        <v>0.3124268347401816</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7800292766339006</v>
+        <v>1.366737939779059</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0003265711133257158</v>
+        <v>4.784832510347945e-17</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6811803703232635</v>
+        <v>1.270560227690914</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8932225573635658</v>
+        <v>1.470196024808927</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Vital_O2 saturation pulseoxymetry_mean</t>
+          <t>Lab_Lactate_mean</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.2258556234965525</v>
+        <v>0.3111414095631249</v>
       </c>
       <c r="C14" t="n">
-        <v>0.797833281730377</v>
+        <v>1.364982229079946</v>
       </c>
       <c r="D14" t="n">
-        <v>9.689960550071749e-14</v>
+        <v>2.582361950370755e-11</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7517783966734877</v>
+        <v>1.245695717154585</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8467095466606288</v>
+        <v>1.495691491947907</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Vital_Respiratory Rate_mean</t>
+          <t>Lab_Anion Gap_mean</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1875406003768973</v>
+        <v>0.3045846058476703</v>
       </c>
       <c r="C15" t="n">
-        <v>0.828995459969016</v>
+        <v>1.35606158594125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03148230933617708</v>
+        <v>0.001315205133807304</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6987715796669611</v>
+        <v>1.126104148611163</v>
       </c>
       <c r="F15" t="n">
-        <v>0.983488013317285</v>
+        <v>1.632977755328792</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Lab_Lactate_mean</t>
+          <t>Lab_Urea_Unified_min</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1701501698144689</v>
+        <v>0.2617516980735943</v>
       </c>
       <c r="C16" t="n">
-        <v>1.185482861695535</v>
+        <v>1.299203907542571</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0004372253160758362</v>
+        <v>0.0001802146103327675</v>
       </c>
       <c r="E16" t="n">
-        <v>1.078224543049853</v>
+        <v>1.132889894789415</v>
       </c>
       <c r="F16" t="n">
-        <v>1.303410893800121</v>
+        <v>1.489933665343217</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Vital_Heart Rate_mean</t>
+          <t>Vital_Respiratory Rate_mean</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1576093256382956</v>
+        <v>-0.2558938338337653</v>
       </c>
       <c r="C17" t="n">
-        <v>1.170708739465938</v>
+        <v>0.7742241608401265</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04037818932001411</v>
+        <v>0.0003535456860379914</v>
       </c>
       <c r="E17" t="n">
-        <v>1.00693578174896</v>
+        <v>0.672816667007735</v>
       </c>
       <c r="F17" t="n">
-        <v>1.361118531592336</v>
+        <v>0.890915877417922</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Lab_Temperature_mean</t>
+          <t>length_of_stay_days</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1555353145421821</v>
+        <v>-0.2362349501363617</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8559568486709453</v>
+        <v>0.7895951366526246</v>
       </c>
       <c r="D18" t="n">
-        <v>2.219297356574481e-09</v>
+        <v>1.801445393844268e-06</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8134222170353624</v>
+        <v>0.7166191534497159</v>
       </c>
       <c r="F18" t="n">
-        <v>0.900715657185995</v>
+        <v>0.87000253457393</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Lab_pCO2_max</t>
+          <t>Vital_O2 saturation pulseoxymetry_mean</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1032361308601369</v>
+        <v>-0.2337149484792377</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9019139786116361</v>
+        <v>0.7915874269385359</v>
       </c>
       <c r="D19" t="n">
-        <v>2.048613571266528e-05</v>
+        <v>1.726474593602861e-20</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8600722658186255</v>
+        <v>0.7534544207678349</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9457912516697908</v>
+        <v>0.8316503788624688</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Vital_SpO2_mean</t>
+          <t>Vital_Heart Rate_mean</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.07414648489787959</v>
+        <v>0.2195546540576215</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9285356674262022</v>
+        <v>1.245521918922253</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001058960718885704</v>
+        <v>0.0006896471189518449</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8882262050658066</v>
+        <v>1.097191588604516</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9706744529325679</v>
+        <v>1.413905161712782</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Lab_Albumin_min</t>
+          <t>Lab_Base Excess_min</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0726973237005191</v>
+        <v>-0.1880193645928901</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9298822407510494</v>
+        <v>0.8285986616015714</v>
       </c>
       <c r="D21" t="n">
-        <v>0.000127486587132366</v>
+        <v>0.0005896798214491906</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8959352145972964</v>
+        <v>0.7443383966889355</v>
       </c>
       <c r="F21" t="n">
-        <v>0.965115521274435</v>
+        <v>0.9223973196358436</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Lab_INR(PT)_max</t>
+          <t>Vital_GCS - Verbal Response_min</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.06701970971222265</v>
+        <v>0.1875354865306905</v>
       </c>
       <c r="C22" t="n">
-        <v>1.069316553888453</v>
+        <v>1.206273055107255</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0002630002381232164</v>
+        <v>0.001127550964424764</v>
       </c>
       <c r="E22" t="n">
-        <v>1.031510645975939</v>
+        <v>1.077526845117413</v>
       </c>
       <c r="F22" t="n">
-        <v>1.108508086543345</v>
+        <v>1.350402256863712</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Lab_Bilirubin_Unified_mean</t>
+          <t>Lab_Calcium, Total_max</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.04090572208020964</v>
+        <v>0.1807406995782642</v>
       </c>
       <c r="C23" t="n">
-        <v>1.041753886526255</v>
+        <v>1.198104470017058</v>
       </c>
       <c r="D23" t="n">
-        <v>1.065861413198389e-07</v>
+        <v>0.003962806714206511</v>
       </c>
       <c r="E23" t="n">
-        <v>1.026157904312999</v>
+        <v>1.059488397038548</v>
       </c>
       <c r="F23" t="n">
-        <v>1.057586903079132</v>
+        <v>1.354856103273238</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Vital_Mean Arterial Pressure Unified_min</t>
+          <t>Vital_Carbon Dioxide_min</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.03957052009251527</v>
+        <v>-0.1794126224718093</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9612021675346923</v>
+        <v>0.8357609744809116</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0008836070001353846</v>
+        <v>3.620068649720816e-12</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9390424509808035</v>
+        <v>0.7945340994241273</v>
       </c>
       <c r="F24" t="n">
-        <v>0.983884813629451</v>
+        <v>0.8791270342853101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Lab_Lactate Dehydrogenase (LD)_min</t>
+          <t>Lab_Creatinine_Unified_min</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.03251444358483217</v>
+        <v>-0.1458606816112657</v>
       </c>
       <c r="C25" t="n">
-        <v>1.033048813964398</v>
+        <v>0.8642781046303357</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001385124591137664</v>
+        <v>0.01371194698650881</v>
       </c>
       <c r="E25" t="n">
-        <v>1.012665126430945</v>
+        <v>0.769626390033172</v>
       </c>
       <c r="F25" t="n">
-        <v>1.053842799736248</v>
+        <v>0.9705704635611699</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Lab_Neutrophils_min</t>
+          <t>Lab_Temperature_min</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.02819005145223452</v>
+        <v>-0.08237904098566708</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9722035805400052</v>
+        <v>0.9209228250372201</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0243481905589281</v>
+        <v>9.4870329555417e-05</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9486371285557259</v>
+        <v>0.8836064592396311</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9963554804710383</v>
+        <v>0.9598151312795381</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
+          <t>Vital_GCS Total_max</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.07544102895518078</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9273344148009265</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0002188832778059545</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8909694441689787</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.965183623862954</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Vital_Hematocrit_max</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.06869010913352611</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.071104232294076</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.397684086045003e-07</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.043548463889388</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.099387633768667</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Lab_Albumin_min</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.06549923862926021</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9365997598590085</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.500849730039157e-05</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9075896790444182</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9665371151989713</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Vital_SpO2_min</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.0459585627373152</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9550815373353141</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.248709358468153e-05</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.935591487334105</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9749776000612991</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Lab_Lactate Dehydrogenase (LD)_min</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.04050799445763107</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.041339634614829</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.015974663864294e-05</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.022775539591823</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.060240681012484</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Vital_Mental status_mean</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.03614552093333762</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.036806712594077</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.01833535475621782</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.006130037212921</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.06841871281162</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Vital_Temp_Unified_min</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.03394493269075678</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9666247325950049</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.01168946928850413</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9414523100025687</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9924702119662498</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Lab_Bilirubin_Unified_max</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.02932864179897269</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.02976296202358</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.368658018381651e-06</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.017578910060812</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.04209290058125</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Lab_Neutrophils_max</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.02884281531948163</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9715691682542559</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0001942312039548698</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9569413511618432</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9864205863360389</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
           <t>Lab_Alanine Aminotransferase (ALT)_max</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>-0.01289202105437114</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.9871907250790716</v>
-      </c>
-      <c r="D27" t="n">
-        <v>8.214168006218184e-07</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.9821442003979192</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.9922631801799598</v>
+      <c r="B36" t="n">
+        <v>-0.01296339440158156</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9871202684870789</v>
+      </c>
+      <c r="D36" t="n">
+        <v>7.630730799322479e-09</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9827879194035865</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.991471715534853</v>
       </c>
     </row>
   </sheetData>
